--- a/Back-Up API person data.xlsx
+++ b/Back-Up API person data.xlsx
@@ -2,14 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -19,13 +20,28 @@
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -34,15 +50,10 @@
       <sz val="11"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <sz val="11"/>
     </font>
   </fonts>
@@ -54,14 +65,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -70,97 +74,141 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="39">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -237,34 +285,34 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
@@ -278,71 +326,69 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -366,53 +412,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -422,7 +469,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -431,7 +478,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -440,7 +487,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -448,10 +495,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -480,7 +527,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -493,12 +540,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -517,527 +565,522 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AC5"/>
+  <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="11.86214285714286" bestFit="1" customWidth="1" style="19" min="1" max="1"/>
-    <col width="11.86214285714286" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
-    <col width="44.14785714285715" bestFit="1" customWidth="1" style="20" min="3" max="3"/>
-    <col width="17.57642857142857" bestFit="1" customWidth="1" style="19" min="4" max="4"/>
-    <col width="21.29071428571428" bestFit="1" customWidth="1" style="19" min="5" max="5"/>
-    <col width="9.005000000000001" bestFit="1" customWidth="1" style="20" min="6" max="6"/>
-    <col width="15.71928571428571" bestFit="1" customWidth="1" style="21" min="7" max="7"/>
-    <col width="13.14785714285714" bestFit="1" customWidth="1" style="22" min="8" max="8"/>
-    <col width="11.86214285714286" bestFit="1" customWidth="1" style="23" min="9" max="9"/>
-    <col width="11.86214285714286" bestFit="1" customWidth="1" style="23" min="10" max="10"/>
-    <col width="11.86214285714286" bestFit="1" customWidth="1" style="24" min="11" max="11"/>
-    <col width="11.86214285714286" bestFit="1" customWidth="1" style="25" min="12" max="12"/>
-    <col width="11.43357142857143" bestFit="1" customWidth="1" style="26" min="13" max="13"/>
-    <col width="13.14785714285714" bestFit="1" customWidth="1" style="26" min="14" max="14"/>
-    <col width="11.43357142857143" bestFit="1" customWidth="1" style="27" min="15" max="15"/>
-    <col width="9.43357142857143" bestFit="1" customWidth="1" style="27" min="16" max="16"/>
-    <col width="12.005" bestFit="1" customWidth="1" style="27" min="17" max="17"/>
-    <col width="10.86214285714286" bestFit="1" customWidth="1" style="27" min="18" max="18"/>
-    <col width="17.29071428571428" bestFit="1" customWidth="1" style="23" min="19" max="19"/>
-    <col width="16.29071428571428" bestFit="1" customWidth="1" style="27" min="20" max="20"/>
-    <col width="17.29071428571428" bestFit="1" customWidth="1" style="27" min="21" max="21"/>
-    <col width="16.29071428571428" bestFit="1" customWidth="1" style="23" min="22" max="22"/>
-    <col width="17.29071428571428" bestFit="1" customWidth="1" style="23" min="23" max="23"/>
-    <col width="17.86214285714286" bestFit="1" customWidth="1" style="23" min="24" max="24"/>
-    <col width="18.005" bestFit="1" customWidth="1" style="25" min="25" max="25"/>
-    <col width="17.71928571428571" bestFit="1" customWidth="1" style="23" min="26" max="26"/>
-    <col width="17.86214285714286" bestFit="1" customWidth="1" style="25" min="27" max="27"/>
-    <col width="17.29071428571428" bestFit="1" customWidth="1" style="25" min="28" max="28"/>
-    <col width="16.29071428571428" bestFit="1" customWidth="1" style="25" min="29" max="29"/>
+    <col width="11.86" customWidth="1" style="23" min="1" max="1"/>
+    <col width="11.86" customWidth="1" style="24" min="2" max="2"/>
+    <col width="44.15" customWidth="1" style="24" min="3" max="3"/>
+    <col width="17.57" customWidth="1" style="23" min="4" max="4"/>
+    <col width="21.29" customWidth="1" style="23" min="5" max="5"/>
+    <col width="9" customWidth="1" style="24" min="6" max="6"/>
+    <col width="15.72" customWidth="1" style="25" min="7" max="7"/>
+    <col width="13.15" customWidth="1" style="26" min="8" max="8"/>
+    <col width="11.86" customWidth="1" style="27" min="9" max="10"/>
+    <col width="11.86" customWidth="1" style="28" min="11" max="11"/>
+    <col width="11.86" customWidth="1" style="29" min="12" max="12"/>
+    <col width="11.43" customWidth="1" style="30" min="13" max="13"/>
+    <col width="13.15" customWidth="1" style="30" min="14" max="14"/>
+    <col width="11.43" customWidth="1" style="31" min="15" max="15"/>
+    <col width="9.43" customWidth="1" style="31" min="16" max="16"/>
+    <col width="12" customWidth="1" style="31" min="17" max="17"/>
+    <col width="10.86" customWidth="1" style="31" min="18" max="18"/>
+    <col width="17.29" customWidth="1" style="27" min="19" max="19"/>
+    <col width="16.29" customWidth="1" style="31" min="20" max="20"/>
+    <col width="17.29" customWidth="1" style="31" min="21" max="21"/>
+    <col width="16.29" customWidth="1" style="27" min="22" max="22"/>
+    <col width="17.29" customWidth="1" style="27" min="23" max="23"/>
+    <col width="17.86" customWidth="1" style="27" min="24" max="24"/>
+    <col width="18" customWidth="1" style="29" min="25" max="25"/>
+    <col width="17.72" customWidth="1" style="27" min="26" max="26"/>
+    <col width="17.86" customWidth="1" style="29" min="27" max="27"/>
+    <col width="17.29" customWidth="1" style="29" min="28" max="28"/>
+    <col width="16.29" customWidth="1" style="29" min="29" max="29"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="19.5" customHeight="1" s="32">
+      <c r="A1" s="23" t="inlineStr">
         <is>
           <t>Person index</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="24" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="24" t="inlineStr">
         <is>
           <t>API_KEY</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="33" t="inlineStr">
         <is>
           <t>No of times alerted</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="23" t="inlineStr">
         <is>
           <t>Cumulative slouching</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="24" t="inlineStr">
         <is>
           <t>Alert?</t>
         </is>
       </c>
-      <c r="G1" s="4" t="inlineStr">
+      <c r="G1" s="25" t="inlineStr">
         <is>
           <t>Neutral distance</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="26" t="inlineStr">
         <is>
           <t>Neutral angle</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="26" t="inlineStr">
         <is>
           <t>Left X</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="26" t="inlineStr">
         <is>
           <t>Right X</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="23" t="inlineStr">
         <is>
           <t xml:space="preserve">Count </t>
         </is>
       </c>
-      <c r="L1" s="2" t="inlineStr">
+      <c r="L1" s="24" t="inlineStr">
         <is>
           <t>Presence</t>
         </is>
       </c>
-      <c r="M1" s="4" t="inlineStr">
+      <c r="M1" s="25" t="inlineStr">
         <is>
           <t>Current dist</t>
         </is>
       </c>
-      <c r="N1" s="4" t="inlineStr">
+      <c r="N1" s="25" t="inlineStr">
         <is>
           <t>Current angle</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="23" t="inlineStr">
         <is>
           <t xml:space="preserve">Count_max </t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="23" t="inlineStr">
         <is>
           <t>n_people</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="23" t="inlineStr">
         <is>
           <t>Err_Length%</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" s="23" t="inlineStr">
         <is>
           <t>Err_angle%</t>
         </is>
       </c>
-      <c r="S1" s="5" t="inlineStr">
+      <c r="S1" s="26" t="inlineStr">
         <is>
           <t>Lower Y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" s="23" t="inlineStr">
         <is>
           <t>Upper Y</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" s="23" t="inlineStr">
         <is>
           <t>Sideways?</t>
         </is>
       </c>
-      <c r="V1" s="5" t="inlineStr">
+      <c r="V1" s="26" t="inlineStr">
         <is>
           <t>Neutral nose dist</t>
         </is>
       </c>
-      <c r="W1" s="5" t="inlineStr">
+      <c r="W1" s="26" t="inlineStr">
         <is>
           <t>Current nose dist</t>
         </is>
       </c>
-      <c r="X1" s="5" t="inlineStr">
+      <c r="X1" s="26" t="inlineStr">
         <is>
           <t>Neutral neck angle</t>
         </is>
       </c>
-      <c r="Y1" s="2" t="inlineStr">
+      <c r="Y1" s="24" t="inlineStr">
         <is>
           <t>Present neck angle</t>
         </is>
       </c>
-      <c r="Z1" s="5" t="inlineStr">
+      <c r="Z1" s="26" t="inlineStr">
         <is>
           <t>Neutral back angle</t>
         </is>
       </c>
-      <c r="AA1" s="2" t="inlineStr">
+      <c r="AA1" s="24" t="inlineStr">
         <is>
           <t>Present back angle</t>
         </is>
       </c>
-      <c r="AB1" s="2" t="inlineStr">
+      <c r="AB1" s="24" t="inlineStr">
         <is>
           <t>Present err length</t>
         </is>
       </c>
-      <c r="AC1" s="2" t="inlineStr">
+      <c r="AC1" s="24" t="inlineStr">
         <is>
           <t>Present err angle</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1">
-      <c r="A2" s="6" t="n">
+    <row r="2" ht="16.5" customHeight="1" s="32">
+      <c r="A2" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="inlineStr">
+      <c r="B2" s="24" t="inlineStr">
         <is>
           <t>Sree charan</t>
         </is>
       </c>
-      <c r="C2" s="7" t="inlineStr">
-        <is>
-          <t>o.8Pslqqry60mJ7RaN8FUSMV6zpHYAhhxA</t>
-        </is>
-      </c>
-      <c r="D2" s="6" t="n"/>
-      <c r="E2" s="6" t="n"/>
-      <c r="F2" s="7" t="n"/>
-      <c r="G2" s="8" t="n">
-        <v>165.5566368346494</v>
-      </c>
-      <c r="H2" s="9" t="n">
-        <v>6.238860255654425</v>
-      </c>
-      <c r="I2" s="10" t="n">
-        <v>2.199999999999996</v>
-      </c>
-      <c r="J2" s="10" t="n">
-        <v>69.80000000000001</v>
-      </c>
-      <c r="K2" s="11" t="n">
+      <c r="C2" s="34" t="inlineStr">
+        <is>
+          <t>o.cBwOdrMve58QfJ5TwKWeIsf57vtfr9hy</t>
+        </is>
+      </c>
+      <c r="D2" s="23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="24" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G2" s="25" t="n">
+        <v>156.2849960808778</v>
+      </c>
+      <c r="H2" s="26" t="n">
+        <v>46.20414805394447</v>
+      </c>
+      <c r="I2" s="35" t="n">
+        <v>165.6</v>
+      </c>
+      <c r="J2" s="35" t="n">
+        <v>290.4</v>
+      </c>
+      <c r="K2" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="29" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="M2" s="30" t="n">
+        <v>128.7245120402482</v>
+      </c>
+      <c r="N2" s="30" t="n">
+        <v>47.48955292199916</v>
+      </c>
+      <c r="O2" s="28" t="n">
+        <v>20</v>
+      </c>
+      <c r="P2" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" s="28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" s="28" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="T2" s="28" t="n">
+        <v>90</v>
+      </c>
+      <c r="U2" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="L2" s="25" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="M2" s="13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N2" s="13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="O2" s="11" t="n">
-        <v>20</v>
-      </c>
-      <c r="P2" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q2" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="R2" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" s="11" t="n">
-        <v>149.5</v>
-      </c>
-      <c r="T2" s="11" t="n">
-        <v>178</v>
-      </c>
-      <c r="U2" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="11" t="n">
-        <v>160.0156242371351</v>
-      </c>
-      <c r="W2" s="10" t="n">
-        <v>24</v>
-      </c>
-      <c r="X2" s="10" t="n">
-        <v>67.38013505195957</v>
-      </c>
-      <c r="Y2" s="25" t="n">
-        <v>35.21759296819273</v>
-      </c>
-      <c r="Z2" s="11" t="n">
-        <v>39.36245711554011</v>
-      </c>
-      <c r="AA2" s="25" t="n">
+      <c r="V2" s="28" t="n">
+        <v>76.10519036176179</v>
+      </c>
+      <c r="W2" s="35" t="n">
+        <v>67.08203932499369</v>
+      </c>
+      <c r="X2" s="35" t="n">
+        <v>86.98721249581671</v>
+      </c>
+      <c r="Y2" s="29" t="n">
+        <v>35.2175929681927</v>
+      </c>
+      <c r="Z2" s="28" t="n">
+        <v>82.6476206401076</v>
+      </c>
+      <c r="AA2" s="29" t="n">
         <v>144.871417026246</v>
       </c>
-      <c r="AB2" s="14">
+      <c r="AB2" s="36">
         <f>(G2-M2)*100/G2</f>
         <v/>
       </c>
-      <c r="AC2" s="14">
+      <c r="AC2" s="36">
         <f>(N2-H2)*100/H2</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
-      <c r="A3" s="6" t="n">
+    <row r="3" ht="16.5" customHeight="1" s="32">
+      <c r="A3" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="24" t="inlineStr">
         <is>
           <t>Hridhay</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="24" t="inlineStr">
         <is>
           <t>o.5DSBAfH6nGGgDe5qWeW3xxzV59nRwraX</t>
         </is>
       </c>
-      <c r="D3" s="6" t="n"/>
-      <c r="E3" s="6" t="n"/>
-      <c r="F3" s="7" t="n"/>
-      <c r="G3" s="8" t="n">
+      <c r="D3" s="23" t="n"/>
+      <c r="E3" s="23" t="n"/>
+      <c r="F3" s="24" t="n"/>
+      <c r="G3" s="25" t="n">
         <v>68.94925670375279</v>
       </c>
-      <c r="H3" s="9" t="n">
-        <v>31.50426671920419</v>
-      </c>
-      <c r="I3" s="23" t="n">
+      <c r="H3" s="26" t="n">
+        <v>31.5042667192042</v>
+      </c>
+      <c r="I3" s="27" t="n">
         <v>89.40000000000001</v>
       </c>
-      <c r="J3" s="23" t="n">
+      <c r="J3" s="27" t="n">
         <v>146.6</v>
       </c>
-      <c r="K3" s="11" t="n">
+      <c r="K3" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="L3" s="25" t="inlineStr">
+      <c r="L3" s="29" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="M3" s="16" t="inlineStr">
+      <c r="M3" s="37" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="N3" s="16" t="inlineStr">
+      <c r="N3" s="37" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" s="27" t="n"/>
-      <c r="P3" s="27" t="n"/>
-      <c r="Q3" s="27" t="n"/>
-      <c r="R3" s="27" t="n"/>
-      <c r="S3" s="10" t="n">
+      <c r="S3" s="35" t="n">
         <v>207.5</v>
       </c>
-      <c r="T3" s="11" t="n">
+      <c r="T3" s="28" t="n">
         <v>178</v>
       </c>
-      <c r="U3" s="11" t="n">
+      <c r="U3" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="V3" s="10" t="n">
-        <v>85.47514258543241</v>
-      </c>
-      <c r="W3" s="23" t="n"/>
-      <c r="X3" s="10" t="n">
-        <v>60.94539590092286</v>
-      </c>
-      <c r="Y3" s="25" t="n"/>
-      <c r="Z3" s="10" t="n">
-        <v>19.48612957246575</v>
-      </c>
-      <c r="AA3" s="25" t="n"/>
-      <c r="AB3" s="14">
+      <c r="V3" s="35" t="n">
+        <v>20.591260281974</v>
+      </c>
+      <c r="X3" s="35" t="n">
+        <v>60.9453959009229</v>
+      </c>
+      <c r="Z3" s="35" t="n">
+        <v>19.4861295724657</v>
+      </c>
+      <c r="AB3" s="36">
         <f>(G3-M3)*100/G3</f>
         <v/>
       </c>
-      <c r="AC3" s="14">
+      <c r="AC3" s="36">
         <f>(N3-H3)*100/H3</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
-      <c r="A4" s="6" t="n">
+    <row r="4" ht="16.5" customHeight="1" s="32">
+      <c r="A4" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="B4" s="24" t="inlineStr">
         <is>
           <t>SreeCharan</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
-        <is>
-          <t>o.cBwOdrMve58QfJ5TwKWeIsf57vtfr9hy</t>
-        </is>
-      </c>
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="6" t="n"/>
-      <c r="F4" s="7" t="n"/>
-      <c r="G4" s="8" t="n">
-        <v>93.49331526906082</v>
-      </c>
-      <c r="H4" s="9" t="n">
-        <v>89.51853419416165</v>
-      </c>
-      <c r="I4" s="23" t="n">
+      <c r="C4" s="34" t="inlineStr">
+        <is>
+          <t>o.8Pslqqry60mJ7RaN8FUSMV6zpHYAhhxA</t>
+        </is>
+      </c>
+      <c r="D4" s="23" t="n"/>
+      <c r="E4" s="23" t="n"/>
+      <c r="F4" s="24" t="n"/>
+      <c r="G4" s="25" t="n">
+        <v>93.4933152690608</v>
+      </c>
+      <c r="H4" s="26" t="n">
+        <v>89.5185341941616</v>
+      </c>
+      <c r="I4" s="27" t="n">
         <v>170.3</v>
       </c>
-      <c r="J4" s="23" t="n">
+      <c r="J4" s="27" t="n">
         <v>245.7</v>
       </c>
-      <c r="K4" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="25" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="M4" s="13" t="n">
-        <v>26.68332812825267</v>
-      </c>
-      <c r="N4" s="13" t="n">
-        <v>30.73928841697344</v>
-      </c>
-      <c r="O4" s="27" t="n"/>
-      <c r="P4" s="27" t="n"/>
-      <c r="Q4" s="27" t="n"/>
-      <c r="R4" s="27" t="n"/>
-      <c r="S4" s="23" t="n">
+      <c r="K4" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="M4" s="30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N4" s="30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S4" s="27" t="n">
         <v>233.5</v>
       </c>
-      <c r="T4" s="27" t="n">
+      <c r="T4" s="31" t="n">
         <v>168</v>
       </c>
-      <c r="U4" s="27" t="n">
+      <c r="U4" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="V4" s="23" t="n">
-        <v>116.2970334961301</v>
-      </c>
-      <c r="W4" s="23" t="n"/>
-      <c r="X4" s="23" t="n">
+      <c r="V4" s="27" t="n">
+        <v>26</v>
+      </c>
+      <c r="X4" s="27" t="n">
         <v>90</v>
       </c>
-      <c r="Y4" s="25" t="n"/>
-      <c r="Z4" s="23" t="n">
-        <v>57.66981426494965</v>
-      </c>
-      <c r="AA4" s="25" t="n"/>
-      <c r="AB4" s="14">
+      <c r="Z4" s="27" t="n">
+        <v>57.6698142649497</v>
+      </c>
+      <c r="AB4" s="36">
         <f>(G4-M4)*100/G4</f>
         <v/>
       </c>
-      <c r="AC4" s="14">
+      <c r="AC4" s="36">
         <f>(N4-H4)*100/H4</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="6" t="n">
+    <row r="5" ht="19.5" customHeight="1" s="32">
+      <c r="A5" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="24" t="inlineStr">
         <is>
           <t>Adarsh</t>
         </is>
       </c>
-      <c r="C5" s="18" t="inlineStr">
+      <c r="C5" s="38" t="inlineStr">
         <is>
           <t>o.EE0Tzv0zamMoLiNJwZ0VWeOBixmokh2M</t>
         </is>
       </c>
-      <c r="D5" s="6" t="n"/>
-      <c r="E5" s="6" t="n"/>
-      <c r="F5" s="7" t="n"/>
-      <c r="G5" s="8" t="n">
-        <v>160.1530517973354</v>
-      </c>
-      <c r="H5" s="9" t="n">
-        <v>33.84005613496724</v>
-      </c>
-      <c r="I5" s="23" t="n">
+      <c r="D5" s="23" t="n"/>
+      <c r="E5" s="23" t="n"/>
+      <c r="F5" s="24" t="n"/>
+      <c r="G5" s="25" t="n">
+        <v>160.153051797335</v>
+      </c>
+      <c r="H5" s="26" t="n">
+        <v>33.8400561349672</v>
+      </c>
+      <c r="I5" s="27" t="n">
         <v>274.7</v>
       </c>
-      <c r="J5" s="23" t="n">
+      <c r="J5" s="27" t="n">
         <v>329.3</v>
       </c>
-      <c r="K5" s="11" t="n">
+      <c r="K5" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="L5" s="25" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="M5" s="13" t="n">
-        <v>28.16025568065745</v>
-      </c>
-      <c r="N5" s="13" t="n">
-        <v>31.03881646229514</v>
-      </c>
-      <c r="O5" s="27" t="n"/>
-      <c r="P5" s="27" t="n"/>
-      <c r="Q5" s="27" t="n"/>
-      <c r="R5" s="27" t="n"/>
-      <c r="S5" s="23" t="n">
+      <c r="L5" s="29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="M5" s="30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N5" s="30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="S5" s="27" t="n">
         <v>278</v>
       </c>
-      <c r="T5" s="27" t="n">
+      <c r="T5" s="31" t="n">
         <v>180</v>
       </c>
-      <c r="U5" s="27" t="n">
+      <c r="U5" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="V5" s="23" t="n">
-        <v>178.0252791038396</v>
-      </c>
-      <c r="W5" s="23" t="n"/>
-      <c r="X5" s="23" t="n">
-        <v>77.47119229084849</v>
-      </c>
-      <c r="Y5" s="25" t="n"/>
-      <c r="Z5" s="23" t="n">
-        <v>87.49490713275861</v>
-      </c>
-      <c r="AA5" s="25" t="n"/>
-      <c r="AB5" s="14">
+      <c r="V5" s="27" t="n">
+        <v>18.4390889145858</v>
+      </c>
+      <c r="X5" s="27" t="n">
+        <v>77.47119229084851</v>
+      </c>
+      <c r="Z5" s="27" t="n">
+        <v>87.4949071327586</v>
+      </c>
+      <c r="AB5" s="36">
         <f>(G5-M5)*100/G5</f>
         <v/>
       </c>
-      <c r="AC5" s="14">
+      <c r="AC5" s="36">
         <f>(N5-H5)*100/H5</f>
         <v/>
       </c>
     </row>
+    <row r="8" ht="13.8" customHeight="1" s="32">
+      <c r="C8" s="34" t="n"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
--- a/Back-Up API person data.xlsx
+++ b/Back-Up API person data.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -20,28 +19,13 @@
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
-      <charset val="1"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -50,8 +34,13 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="Arial"/>
-      <charset val="1"/>
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
@@ -65,7 +54,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -74,141 +70,82 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="general"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
-    <cellStyle name="Currency" xfId="3" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -285,10 +222,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -326,69 +263,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,54 +351,53 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -469,7 +407,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -478,7 +416,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -487,7 +425,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -495,10 +433,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -527,7 +465,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -540,13 +478,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -565,522 +502,622 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr filterMode="0">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="0"/>
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:AC8"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11.86" customWidth="1" style="23" min="1" max="1"/>
-    <col width="11.86" customWidth="1" style="24" min="2" max="2"/>
-    <col width="44.15" customWidth="1" style="24" min="3" max="3"/>
-    <col width="17.57" customWidth="1" style="23" min="4" max="4"/>
-    <col width="21.29" customWidth="1" style="23" min="5" max="5"/>
-    <col width="9" customWidth="1" style="24" min="6" max="6"/>
-    <col width="15.72" customWidth="1" style="25" min="7" max="7"/>
-    <col width="13.15" customWidth="1" style="26" min="8" max="8"/>
-    <col width="11.86" customWidth="1" style="27" min="9" max="10"/>
-    <col width="11.86" customWidth="1" style="28" min="11" max="11"/>
-    <col width="11.86" customWidth="1" style="29" min="12" max="12"/>
-    <col width="11.43" customWidth="1" style="30" min="13" max="13"/>
-    <col width="13.15" customWidth="1" style="30" min="14" max="14"/>
-    <col width="11.43" customWidth="1" style="31" min="15" max="15"/>
-    <col width="9.43" customWidth="1" style="31" min="16" max="16"/>
-    <col width="12" customWidth="1" style="31" min="17" max="17"/>
-    <col width="10.86" customWidth="1" style="31" min="18" max="18"/>
-    <col width="17.29" customWidth="1" style="27" min="19" max="19"/>
-    <col width="16.29" customWidth="1" style="31" min="20" max="20"/>
-    <col width="17.29" customWidth="1" style="31" min="21" max="21"/>
-    <col width="16.29" customWidth="1" style="27" min="22" max="22"/>
-    <col width="17.29" customWidth="1" style="27" min="23" max="23"/>
-    <col width="17.86" customWidth="1" style="27" min="24" max="24"/>
-    <col width="18" customWidth="1" style="29" min="25" max="25"/>
-    <col width="17.72" customWidth="1" style="27" min="26" max="26"/>
-    <col width="17.86" customWidth="1" style="29" min="27" max="27"/>
-    <col width="17.29" customWidth="1" style="29" min="28" max="28"/>
-    <col width="16.29" customWidth="1" style="29" min="29" max="29"/>
+    <col width="11.86214285714286" bestFit="1" customWidth="1" style="18" min="1" max="1"/>
+    <col width="11.86214285714286" bestFit="1" customWidth="1" style="19" min="2" max="2"/>
+    <col width="44.14785714285715" bestFit="1" customWidth="1" style="20" min="3" max="3"/>
+    <col width="17.57642857142857" bestFit="1" customWidth="1" style="18" min="4" max="4"/>
+    <col width="21.29071428571428" bestFit="1" customWidth="1" style="18" min="5" max="5"/>
+    <col width="9.005000000000001" bestFit="1" customWidth="1" style="19" min="6" max="6"/>
+    <col width="15.71928571428571" bestFit="1" customWidth="1" style="21" min="7" max="7"/>
+    <col width="13.14785714285714" bestFit="1" customWidth="1" style="22" min="8" max="8"/>
+    <col width="11.86214285714286" bestFit="1" customWidth="1" style="22" min="9" max="9"/>
+    <col width="11.86214285714286" bestFit="1" customWidth="1" style="22" min="10" max="10"/>
+    <col width="11.86214285714286" bestFit="1" customWidth="1" style="18" min="11" max="11"/>
+    <col width="11.86214285714286" bestFit="1" customWidth="1" style="19" min="12" max="12"/>
+    <col width="11.43357142857143" bestFit="1" customWidth="1" style="21" min="13" max="13"/>
+    <col width="13.14785714285714" bestFit="1" customWidth="1" style="21" min="14" max="14"/>
+    <col width="11.43357142857143" bestFit="1" customWidth="1" style="18" min="15" max="15"/>
+    <col width="9.43357142857143" bestFit="1" customWidth="1" style="18" min="16" max="16"/>
+    <col width="12.005" bestFit="1" customWidth="1" style="18" min="17" max="17"/>
+    <col width="10.86214285714286" bestFit="1" customWidth="1" style="18" min="18" max="18"/>
+    <col width="17.29071428571428" bestFit="1" customWidth="1" style="22" min="19" max="19"/>
+    <col width="16.29071428571428" bestFit="1" customWidth="1" style="18" min="20" max="20"/>
+    <col width="17.29071428571428" bestFit="1" customWidth="1" style="18" min="21" max="21"/>
+    <col width="16.29071428571428" bestFit="1" customWidth="1" style="22" min="22" max="22"/>
+    <col width="17.29071428571428" bestFit="1" customWidth="1" style="22" min="23" max="23"/>
+    <col width="17.86214285714286" bestFit="1" customWidth="1" style="22" min="24" max="24"/>
+    <col width="18.005" bestFit="1" customWidth="1" style="22" min="25" max="25"/>
+    <col width="17.71928571428571" bestFit="1" customWidth="1" style="22" min="26" max="26"/>
+    <col width="17.86214285714286" bestFit="1" customWidth="1" style="22" min="27" max="27"/>
+    <col width="17.29071428571428" bestFit="1" customWidth="1" style="19" min="28" max="28"/>
+    <col width="16.29071428571428" bestFit="1" customWidth="1" style="19" min="29" max="29"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1" s="32">
-      <c r="A1" s="23" t="inlineStr">
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Person index</t>
         </is>
       </c>
-      <c r="B1" s="24" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="24" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>API_KEY</t>
         </is>
       </c>
-      <c r="D1" s="33" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>No of times alerted</t>
         </is>
       </c>
-      <c r="E1" s="23" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Cumulative slouching</t>
         </is>
       </c>
-      <c r="F1" s="24" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Alert?</t>
         </is>
       </c>
-      <c r="G1" s="25" t="inlineStr">
+      <c r="G1" s="4" t="inlineStr">
         <is>
           <t>Neutral distance</t>
         </is>
       </c>
-      <c r="H1" s="26" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>Neutral angle</t>
         </is>
       </c>
-      <c r="I1" s="26" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>Left X</t>
         </is>
       </c>
-      <c r="J1" s="26" t="inlineStr">
+      <c r="J1" s="5" t="inlineStr">
         <is>
           <t>Right X</t>
         </is>
       </c>
-      <c r="K1" s="23" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Count </t>
         </is>
       </c>
-      <c r="L1" s="24" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>Presence</t>
         </is>
       </c>
-      <c r="M1" s="25" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>Current dist</t>
         </is>
       </c>
-      <c r="N1" s="25" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>Current angle</t>
         </is>
       </c>
-      <c r="O1" s="23" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve">Count_max </t>
         </is>
       </c>
-      <c r="P1" s="23" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>n_people</t>
         </is>
       </c>
-      <c r="Q1" s="23" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Err_Length%</t>
         </is>
       </c>
-      <c r="R1" s="23" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Err_angle%</t>
         </is>
       </c>
-      <c r="S1" s="26" t="inlineStr">
+      <c r="S1" s="5" t="inlineStr">
         <is>
           <t>Lower Y</t>
         </is>
       </c>
-      <c r="T1" s="23" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Upper Y</t>
         </is>
       </c>
-      <c r="U1" s="23" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Sideways?</t>
         </is>
       </c>
-      <c r="V1" s="26" t="inlineStr">
+      <c r="V1" s="5" t="inlineStr">
         <is>
           <t>Neutral nose dist</t>
         </is>
       </c>
-      <c r="W1" s="26" t="inlineStr">
+      <c r="W1" s="5" t="inlineStr">
         <is>
           <t>Current nose dist</t>
         </is>
       </c>
-      <c r="X1" s="26" t="inlineStr">
+      <c r="X1" s="5" t="inlineStr">
         <is>
           <t>Neutral neck angle</t>
         </is>
       </c>
-      <c r="Y1" s="24" t="inlineStr">
+      <c r="Y1" s="5" t="inlineStr">
         <is>
           <t>Present neck angle</t>
         </is>
       </c>
-      <c r="Z1" s="26" t="inlineStr">
+      <c r="Z1" s="5" t="inlineStr">
         <is>
           <t>Neutral back angle</t>
         </is>
       </c>
-      <c r="AA1" s="24" t="inlineStr">
+      <c r="AA1" s="5" t="inlineStr">
         <is>
           <t>Present back angle</t>
         </is>
       </c>
-      <c r="AB1" s="24" t="inlineStr">
+      <c r="AB1" s="2" t="inlineStr">
         <is>
           <t>Present err length</t>
         </is>
       </c>
-      <c r="AC1" s="24" t="inlineStr">
+      <c r="AC1" s="2" t="inlineStr">
         <is>
           <t>Present err angle</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="16.5" customHeight="1" s="32">
-      <c r="A2" s="23" t="n">
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="inlineStr">
-        <is>
-          <t>Sree charan</t>
-        </is>
-      </c>
-      <c r="C2" s="34" t="inlineStr">
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Adarsh</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
         <is>
           <t>o.cBwOdrMve58QfJ5TwKWeIsf57vtfr9hy</t>
         </is>
       </c>
-      <c r="D2" s="23" t="n">
+      <c r="D2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="23" t="n">
+      <c r="E2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F2" s="24" t="inlineStr">
+      <c r="F2" s="2" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="G2" s="25" t="n">
-        <v>156.2849960808778</v>
-      </c>
-      <c r="H2" s="26" t="n">
-        <v>46.20414805394447</v>
-      </c>
-      <c r="I2" s="35" t="n">
-        <v>165.6</v>
-      </c>
-      <c r="J2" s="35" t="n">
-        <v>290.4</v>
-      </c>
-      <c r="K2" s="28" t="n">
+      <c r="G2" s="4" t="n">
+        <v>38.07886552931954</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>74.74488129694222</v>
+      </c>
+      <c r="I2" s="6" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="J2" s="6" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="K2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="L2" s="29" t="inlineStr">
+      <c r="L2" s="8" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="M2" s="30" t="n">
-        <v>128.7245120402482</v>
-      </c>
-      <c r="N2" s="30" t="n">
-        <v>47.48955292199916</v>
-      </c>
-      <c r="O2" s="28" t="n">
+      <c r="M2" s="9" t="n">
+        <v>34.92849839314596</v>
+      </c>
+      <c r="N2" s="9" t="n">
+        <v>76.6075022462489</v>
+      </c>
+      <c r="O2" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="P2" s="28" t="n">
+      <c r="P2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" s="28" t="n">
+      <c r="Q2" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="R2" s="28" t="n">
+      <c r="R2" s="7" t="n">
         <v>5</v>
       </c>
-      <c r="S2" s="28" t="n">
-        <v>243.5</v>
-      </c>
-      <c r="T2" s="28" t="n">
-        <v>90</v>
-      </c>
-      <c r="U2" s="28" t="n">
+      <c r="S2" s="7" t="n">
+        <v>206.5</v>
+      </c>
+      <c r="T2" s="7" t="n">
+        <v>170</v>
+      </c>
+      <c r="U2" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="V2" s="28" t="n">
-        <v>76.10519036176179</v>
-      </c>
-      <c r="W2" s="35" t="n">
-        <v>67.08203932499369</v>
-      </c>
-      <c r="X2" s="35" t="n">
-        <v>86.98721249581671</v>
-      </c>
-      <c r="Y2" s="29" t="n">
+      <c r="V2" s="7" t="n">
+        <v>18.11077027627483</v>
+      </c>
+      <c r="W2" s="6" t="n">
+        <v>14.14213562373095</v>
+      </c>
+      <c r="X2" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="6" t="n">
         <v>35.2175929681927</v>
       </c>
-      <c r="Z2" s="28" t="n">
-        <v>82.6476206401076</v>
-      </c>
-      <c r="AA2" s="29" t="n">
+      <c r="Z2" s="7" t="n">
+        <v>21.5713071912546</v>
+      </c>
+      <c r="AA2" s="6" t="n">
         <v>144.871417026246</v>
       </c>
-      <c r="AB2" s="36">
+      <c r="AB2" s="10">
         <f>(G2-M2)*100/G2</f>
         <v/>
       </c>
-      <c r="AC2" s="36">
+      <c r="AC2" s="10">
         <f>(N2-H2)*100/H2</f>
         <v/>
       </c>
     </row>
-    <row r="3" ht="16.5" customHeight="1" s="32">
-      <c r="A3" s="23" t="n">
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>Hridhay</t>
         </is>
       </c>
-      <c r="C3" s="24" t="inlineStr">
+      <c r="C3" s="2" t="inlineStr">
         <is>
           <t>o.5DSBAfH6nGGgDe5qWeW3xxzV59nRwraX</t>
         </is>
       </c>
-      <c r="D3" s="23" t="n"/>
-      <c r="E3" s="23" t="n"/>
-      <c r="F3" s="24" t="n"/>
-      <c r="G3" s="25" t="n">
-        <v>68.94925670375279</v>
-      </c>
-      <c r="H3" s="26" t="n">
-        <v>31.5042667192042</v>
-      </c>
-      <c r="I3" s="27" t="n">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="J3" s="27" t="n">
-        <v>146.6</v>
-      </c>
-      <c r="K3" s="28" t="n">
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="4" t="n"/>
+      <c r="H3" s="5" t="n"/>
+      <c r="I3" s="6" t="n"/>
+      <c r="J3" s="6" t="n"/>
+      <c r="K3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="M3" s="11" t="n">
+        <v>44.14748010928823</v>
+      </c>
+      <c r="N3" s="11" t="n">
+        <v>84.27216467839459</v>
+      </c>
+      <c r="O3" s="12" t="n"/>
+      <c r="P3" s="12" t="n"/>
+      <c r="Q3" s="12" t="n"/>
+      <c r="R3" s="12" t="n"/>
+      <c r="S3" s="6" t="n">
+        <v>175</v>
+      </c>
+      <c r="T3" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="U3" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="L3" s="29" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="M3" s="37" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N3" s="37" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="S3" s="35" t="n">
-        <v>207.5</v>
-      </c>
-      <c r="T3" s="28" t="n">
-        <v>178</v>
-      </c>
-      <c r="U3" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="35" t="n">
-        <v>20.591260281974</v>
-      </c>
-      <c r="X3" s="35" t="n">
-        <v>60.9453959009229</v>
-      </c>
-      <c r="Z3" s="35" t="n">
-        <v>19.4861295724657</v>
-      </c>
-      <c r="AB3" s="36">
+      <c r="V3" s="6" t="n">
+        <v>38</v>
+      </c>
+      <c r="W3" s="13" t="n">
+        <v>17.08800749063506</v>
+      </c>
+      <c r="X3" s="6" t="n">
+        <v>56.30993247402022</v>
+      </c>
+      <c r="Y3" s="13" t="n"/>
+      <c r="Z3" s="6" t="n">
+        <v>52.52382043863863</v>
+      </c>
+      <c r="AA3" s="13" t="n"/>
+      <c r="AB3" s="10">
         <f>(G3-M3)*100/G3</f>
         <v/>
       </c>
-      <c r="AC3" s="36">
+      <c r="AC3" s="10">
         <f>(N3-H3)*100/H3</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="16.5" customHeight="1" s="32">
-      <c r="A4" s="23" t="n">
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>SreeCharan</t>
         </is>
       </c>
-      <c r="C4" s="34" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>o.8Pslqqry60mJ7RaN8FUSMV6zpHYAhhxA</t>
         </is>
       </c>
-      <c r="D4" s="23" t="n"/>
-      <c r="E4" s="23" t="n"/>
-      <c r="F4" s="24" t="n"/>
-      <c r="G4" s="25" t="n">
+      <c r="D4" s="1" t="n"/>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="2" t="n"/>
+      <c r="G4" s="4" t="n">
         <v>93.4933152690608</v>
       </c>
-      <c r="H4" s="26" t="n">
+      <c r="H4" s="5" t="n">
         <v>89.5185341941616</v>
       </c>
-      <c r="I4" s="27" t="n">
+      <c r="I4" s="6" t="n">
         <v>170.3</v>
       </c>
-      <c r="J4" s="27" t="n">
+      <c r="J4" s="6" t="n">
         <v>245.7</v>
       </c>
-      <c r="K4" s="28" t="n">
+      <c r="K4" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="L4" s="29" t="inlineStr">
+      <c r="L4" s="8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="M4" s="30" t="inlineStr">
+      <c r="M4" s="9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="N4" s="30" t="inlineStr">
+      <c r="N4" s="9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="S4" s="27" t="n">
+      <c r="O4" s="12" t="n"/>
+      <c r="P4" s="12" t="n"/>
+      <c r="Q4" s="12" t="n"/>
+      <c r="R4" s="12" t="n"/>
+      <c r="S4" s="6" t="n">
         <v>233.5</v>
       </c>
-      <c r="T4" s="31" t="n">
+      <c r="T4" s="7" t="n">
         <v>168</v>
       </c>
-      <c r="U4" s="31" t="n">
+      <c r="U4" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="V4" s="27" t="n">
+      <c r="V4" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="X4" s="27" t="n">
+      <c r="W4" s="13" t="n"/>
+      <c r="X4" s="6" t="n">
         <v>90</v>
       </c>
-      <c r="Z4" s="27" t="n">
+      <c r="Y4" s="13" t="n"/>
+      <c r="Z4" s="6" t="n">
         <v>57.6698142649497</v>
       </c>
-      <c r="AB4" s="36">
+      <c r="AA4" s="13" t="n"/>
+      <c r="AB4" s="10">
         <f>(G4-M4)*100/G4</f>
         <v/>
       </c>
-      <c r="AC4" s="36">
+      <c r="AC4" s="10">
         <f>(N4-H4)*100/H4</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="19.5" customHeight="1" s="32">
-      <c r="A5" s="23" t="n">
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
         <is>
           <t>Adarsh</t>
         </is>
       </c>
-      <c r="C5" s="38" t="inlineStr">
+      <c r="C5" s="14" t="inlineStr">
         <is>
           <t>o.EE0Tzv0zamMoLiNJwZ0VWeOBixmokh2M</t>
         </is>
       </c>
-      <c r="D5" s="23" t="n"/>
-      <c r="E5" s="23" t="n"/>
-      <c r="F5" s="24" t="n"/>
-      <c r="G5" s="25" t="n">
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="1" t="n"/>
+      <c r="F5" s="2" t="n"/>
+      <c r="G5" s="4" t="n">
         <v>160.153051797335</v>
       </c>
-      <c r="H5" s="26" t="n">
+      <c r="H5" s="5" t="n">
         <v>33.8400561349672</v>
       </c>
-      <c r="I5" s="27" t="n">
+      <c r="I5" s="6" t="n">
         <v>274.7</v>
       </c>
-      <c r="J5" s="27" t="n">
+      <c r="J5" s="6" t="n">
         <v>329.3</v>
       </c>
-      <c r="K5" s="28" t="n">
+      <c r="K5" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="L5" s="29" t="inlineStr">
+      <c r="L5" s="8" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="M5" s="30" t="inlineStr">
+      <c r="M5" s="9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="N5" s="30" t="inlineStr">
+      <c r="N5" s="9" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="S5" s="27" t="n">
+      <c r="O5" s="12" t="n"/>
+      <c r="P5" s="12" t="n"/>
+      <c r="Q5" s="12" t="n"/>
+      <c r="R5" s="12" t="n"/>
+      <c r="S5" s="6" t="n">
         <v>278</v>
       </c>
-      <c r="T5" s="31" t="n">
+      <c r="T5" s="7" t="n">
         <v>180</v>
       </c>
-      <c r="U5" s="31" t="n">
+      <c r="U5" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="V5" s="27" t="n">
+      <c r="V5" s="6" t="n">
         <v>18.4390889145858</v>
       </c>
-      <c r="X5" s="27" t="n">
+      <c r="W5" s="13" t="n"/>
+      <c r="X5" s="6" t="n">
         <v>77.47119229084851</v>
       </c>
-      <c r="Z5" s="27" t="n">
+      <c r="Y5" s="13" t="n"/>
+      <c r="Z5" s="6" t="n">
         <v>87.4949071327586</v>
       </c>
-      <c r="AB5" s="36">
+      <c r="AA5" s="13" t="n"/>
+      <c r="AB5" s="10">
         <f>(G5-M5)*100/G5</f>
         <v/>
       </c>
-      <c r="AC5" s="36">
+      <c r="AC5" s="10">
         <f>(N5-H5)*100/H5</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="13.8" customHeight="1" s="32">
-      <c r="C8" s="34" t="n"/>
+    <row r="6" ht="16.5" customHeight="1">
+      <c r="A6" s="12" t="n"/>
+      <c r="B6" s="19" t="n"/>
+      <c r="C6" s="16" t="n"/>
+      <c r="D6" s="12" t="n"/>
+      <c r="E6" s="12" t="n"/>
+      <c r="F6" s="19" t="n"/>
+      <c r="G6" s="17" t="n"/>
+      <c r="H6" s="13" t="n"/>
+      <c r="I6" s="13" t="n"/>
+      <c r="J6" s="13" t="n"/>
+      <c r="K6" s="12" t="n"/>
+      <c r="L6" s="19" t="n"/>
+      <c r="M6" s="17" t="n"/>
+      <c r="N6" s="17" t="n"/>
+      <c r="O6" s="12" t="n"/>
+      <c r="P6" s="12" t="n"/>
+      <c r="Q6" s="12" t="n"/>
+      <c r="R6" s="12" t="n"/>
+      <c r="S6" s="13" t="n"/>
+      <c r="T6" s="12" t="n"/>
+      <c r="U6" s="12" t="n"/>
+      <c r="V6" s="13" t="n"/>
+      <c r="W6" s="13" t="n"/>
+      <c r="X6" s="13" t="n"/>
+      <c r="Y6" s="13" t="n"/>
+      <c r="Z6" s="13" t="n"/>
+      <c r="AA6" s="13" t="n"/>
+      <c r="AB6" s="19" t="n"/>
+      <c r="AC6" s="19" t="n"/>
+    </row>
+    <row r="7" ht="16.5" customHeight="1">
+      <c r="A7" s="12" t="n"/>
+      <c r="B7" s="19" t="n"/>
+      <c r="C7" s="16" t="n"/>
+      <c r="D7" s="12" t="n"/>
+      <c r="E7" s="12" t="n"/>
+      <c r="F7" s="19" t="n"/>
+      <c r="G7" s="17" t="n"/>
+      <c r="H7" s="13" t="n"/>
+      <c r="I7" s="13" t="n"/>
+      <c r="J7" s="13" t="n"/>
+      <c r="K7" s="12" t="n"/>
+      <c r="L7" s="19" t="n"/>
+      <c r="M7" s="17" t="n"/>
+      <c r="N7" s="17" t="n"/>
+      <c r="O7" s="12" t="n"/>
+      <c r="P7" s="12" t="n"/>
+      <c r="Q7" s="12" t="n"/>
+      <c r="R7" s="12" t="n"/>
+      <c r="S7" s="13" t="n"/>
+      <c r="T7" s="12" t="n"/>
+      <c r="U7" s="12" t="n"/>
+      <c r="V7" s="13" t="n"/>
+      <c r="W7" s="13" t="n"/>
+      <c r="X7" s="13" t="n"/>
+      <c r="Y7" s="13" t="n"/>
+      <c r="Z7" s="13" t="n"/>
+      <c r="AA7" s="13" t="n"/>
+      <c r="AB7" s="19" t="n"/>
+      <c r="AC7" s="19" t="n"/>
+    </row>
+    <row r="8" ht="19.5" customHeight="1">
+      <c r="A8" s="12" t="n"/>
+      <c r="B8" s="19" t="n"/>
+      <c r="C8" s="2" t="n"/>
+      <c r="D8" s="12" t="n"/>
+      <c r="E8" s="12" t="n"/>
+      <c r="F8" s="19" t="n"/>
+      <c r="G8" s="17" t="n"/>
+      <c r="H8" s="13" t="n"/>
+      <c r="I8" s="13" t="n"/>
+      <c r="J8" s="13" t="n"/>
+      <c r="K8" s="12" t="n"/>
+      <c r="L8" s="19" t="n"/>
+      <c r="M8" s="17" t="n"/>
+      <c r="N8" s="17" t="n"/>
+      <c r="O8" s="12" t="n"/>
+      <c r="P8" s="12" t="n"/>
+      <c r="Q8" s="12" t="n"/>
+      <c r="R8" s="12" t="n"/>
+      <c r="S8" s="13" t="n"/>
+      <c r="T8" s="12" t="n"/>
+      <c r="U8" s="12" t="n"/>
+      <c r="V8" s="13" t="n"/>
+      <c r="W8" s="13" t="n"/>
+      <c r="X8" s="13" t="n"/>
+      <c r="Y8" s="13" t="n"/>
+      <c r="Z8" s="13" t="n"/>
+      <c r="AA8" s="13" t="n"/>
+      <c r="AB8" s="19" t="n"/>
+      <c r="AC8" s="19" t="n"/>
     </row>
   </sheetData>
-  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Back-Up API person data.xlsx
+++ b/Back-Up API person data.xlsx
@@ -19,7 +19,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,12 +31,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
       <sz val="11"/>
     </font>
     <font>
@@ -73,7 +67,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -81,7 +75,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -96,9 +90,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -108,26 +99,17 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
@@ -135,11 +117,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,35 +499,35 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="11.86214285714286" bestFit="1" customWidth="1" style="18" min="1" max="1"/>
-    <col width="11.86214285714286" bestFit="1" customWidth="1" style="19" min="2" max="2"/>
-    <col width="44.14785714285715" bestFit="1" customWidth="1" style="20" min="3" max="3"/>
-    <col width="17.57642857142857" bestFit="1" customWidth="1" style="18" min="4" max="4"/>
-    <col width="21.29071428571428" bestFit="1" customWidth="1" style="18" min="5" max="5"/>
-    <col width="9.005000000000001" bestFit="1" customWidth="1" style="19" min="6" max="6"/>
-    <col width="15.71928571428571" bestFit="1" customWidth="1" style="21" min="7" max="7"/>
-    <col width="13.14785714285714" bestFit="1" customWidth="1" style="22" min="8" max="8"/>
-    <col width="11.86214285714286" bestFit="1" customWidth="1" style="22" min="9" max="9"/>
-    <col width="11.86214285714286" bestFit="1" customWidth="1" style="22" min="10" max="10"/>
-    <col width="11.86214285714286" bestFit="1" customWidth="1" style="18" min="11" max="11"/>
-    <col width="11.86214285714286" bestFit="1" customWidth="1" style="19" min="12" max="12"/>
-    <col width="11.43357142857143" bestFit="1" customWidth="1" style="21" min="13" max="13"/>
-    <col width="13.14785714285714" bestFit="1" customWidth="1" style="21" min="14" max="14"/>
-    <col width="11.43357142857143" bestFit="1" customWidth="1" style="18" min="15" max="15"/>
-    <col width="9.43357142857143" bestFit="1" customWidth="1" style="18" min="16" max="16"/>
-    <col width="12.005" bestFit="1" customWidth="1" style="18" min="17" max="17"/>
-    <col width="10.86214285714286" bestFit="1" customWidth="1" style="18" min="18" max="18"/>
-    <col width="17.29071428571428" bestFit="1" customWidth="1" style="22" min="19" max="19"/>
-    <col width="16.29071428571428" bestFit="1" customWidth="1" style="18" min="20" max="20"/>
-    <col width="17.29071428571428" bestFit="1" customWidth="1" style="18" min="21" max="21"/>
-    <col width="16.29071428571428" bestFit="1" customWidth="1" style="22" min="22" max="22"/>
-    <col width="17.29071428571428" bestFit="1" customWidth="1" style="22" min="23" max="23"/>
-    <col width="17.86214285714286" bestFit="1" customWidth="1" style="22" min="24" max="24"/>
-    <col width="18.005" bestFit="1" customWidth="1" style="22" min="25" max="25"/>
-    <col width="17.71928571428571" bestFit="1" customWidth="1" style="22" min="26" max="26"/>
-    <col width="17.86214285714286" bestFit="1" customWidth="1" style="22" min="27" max="27"/>
-    <col width="17.29071428571428" bestFit="1" customWidth="1" style="19" min="28" max="28"/>
-    <col width="16.29071428571428" bestFit="1" customWidth="1" style="19" min="29" max="29"/>
+    <col width="11.86214285714286" bestFit="1" customWidth="1" style="14" min="1" max="1"/>
+    <col width="11.86214285714286" bestFit="1" customWidth="1" style="15" min="2" max="2"/>
+    <col width="44.14785714285715" bestFit="1" customWidth="1" style="16" min="3" max="3"/>
+    <col width="17.57642857142857" bestFit="1" customWidth="1" style="17" min="4" max="4"/>
+    <col width="21.29071428571428" bestFit="1" customWidth="1" style="17" min="5" max="5"/>
+    <col width="9.005000000000001" bestFit="1" customWidth="1" style="15" min="6" max="6"/>
+    <col width="15.71928571428571" bestFit="1" customWidth="1" style="18" min="7" max="7"/>
+    <col width="13.14785714285714" bestFit="1" customWidth="1" style="19" min="8" max="8"/>
+    <col width="11.86214285714286" bestFit="1" customWidth="1" style="19" min="9" max="9"/>
+    <col width="11.86214285714286" bestFit="1" customWidth="1" style="19" min="10" max="10"/>
+    <col width="11.86214285714286" bestFit="1" customWidth="1" style="14" min="11" max="11"/>
+    <col width="11.86214285714286" bestFit="1" customWidth="1" style="15" min="12" max="12"/>
+    <col width="11.43357142857143" bestFit="1" customWidth="1" style="18" min="13" max="13"/>
+    <col width="13.14785714285714" bestFit="1" customWidth="1" style="18" min="14" max="14"/>
+    <col width="11.43357142857143" bestFit="1" customWidth="1" style="14" min="15" max="15"/>
+    <col width="9.43357142857143" bestFit="1" customWidth="1" style="14" min="16" max="16"/>
+    <col width="12.005" bestFit="1" customWidth="1" style="14" min="17" max="17"/>
+    <col width="10.86214285714286" bestFit="1" customWidth="1" style="14" min="18" max="18"/>
+    <col width="17.29071428571428" bestFit="1" customWidth="1" style="19" min="19" max="19"/>
+    <col width="16.29071428571428" bestFit="1" customWidth="1" style="14" min="20" max="20"/>
+    <col width="17.29071428571428" bestFit="1" customWidth="1" style="14" min="21" max="21"/>
+    <col width="16.29071428571428" bestFit="1" customWidth="1" style="19" min="22" max="22"/>
+    <col width="17.29071428571428" bestFit="1" customWidth="1" style="19" min="23" max="23"/>
+    <col width="17.86214285714286" bestFit="1" customWidth="1" style="19" min="24" max="24"/>
+    <col width="18.005" bestFit="1" customWidth="1" style="19" min="25" max="25"/>
+    <col width="17.71928571428571" bestFit="1" customWidth="1" style="19" min="26" max="26"/>
+    <col width="17.86214285714286" bestFit="1" customWidth="1" style="19" min="27" max="27"/>
+    <col width="17.29071428571428" bestFit="1" customWidth="1" style="15" min="28" max="28"/>
+    <col width="16.29071428571428" bestFit="1" customWidth="1" style="15" min="29" max="29"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
@@ -566,7 +551,7 @@
           <t>No of times alerted</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Cumulative slouching</t>
         </is>
@@ -718,30 +703,34 @@
         </is>
       </c>
       <c r="G2" s="4" t="n">
-        <v>38.07886552931954</v>
+        <v>25.49509756796392</v>
       </c>
       <c r="H2" s="5" t="n">
-        <v>74.74488129694222</v>
+        <v>6.312364754648055</v>
       </c>
       <c r="I2" s="6" t="n">
-        <v>186.5</v>
+        <v>159.6</v>
       </c>
       <c r="J2" s="6" t="n">
-        <v>225.5</v>
+        <v>284.4</v>
       </c>
       <c r="K2" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="8" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="M2" s="9" t="n">
-        <v>34.92849839314596</v>
-      </c>
-      <c r="N2" s="9" t="n">
-        <v>76.6075022462489</v>
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="M2" s="8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="N2" s="8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
       </c>
       <c r="O2" s="7" t="n">
         <v>20</v>
@@ -756,37 +745,37 @@
         <v>5</v>
       </c>
       <c r="S2" s="7" t="n">
-        <v>206.5</v>
+        <v>174.5</v>
       </c>
       <c r="T2" s="7" t="n">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="U2" s="7" t="n">
         <v>0</v>
       </c>
       <c r="V2" s="7" t="n">
-        <v>18.11077027627483</v>
+        <v>64.03124237432849</v>
       </c>
       <c r="W2" s="6" t="n">
-        <v>14.14213562373095</v>
+        <v>54</v>
       </c>
       <c r="X2" s="6" t="n">
-        <v>45</v>
+        <v>71.56505117707799</v>
       </c>
       <c r="Y2" s="6" t="n">
         <v>35.2175929681927</v>
       </c>
       <c r="Z2" s="7" t="n">
-        <v>21.5713071912546</v>
+        <v>66.80140948635182</v>
       </c>
       <c r="AA2" s="6" t="n">
         <v>144.871417026246</v>
       </c>
-      <c r="AB2" s="10">
+      <c r="AB2" s="9">
         <f>(G2-M2)*100/G2</f>
         <v/>
       </c>
-      <c r="AC2" s="10">
+      <c r="AC2" s="9">
         <f>(N2-H2)*100/H2</f>
         <v/>
       </c>
@@ -797,12 +786,12 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Hridhay</t>
+          <t>Harshini</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>o.5DSBAfH6nGGgDe5qWeW3xxzV59nRwraX</t>
+          <t>o.aj8KKZrVDlKpfZutgTEs23N4HSmgRX6G</t>
         </is>
       </c>
       <c r="D3" s="1" t="n"/>
@@ -815,49 +804,49 @@
       <c r="K3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="L3" s="8" t="inlineStr">
+      <c r="L3" s="3" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
       </c>
-      <c r="M3" s="11" t="n">
-        <v>44.14748010928823</v>
-      </c>
-      <c r="N3" s="11" t="n">
-        <v>84.27216467839459</v>
-      </c>
-      <c r="O3" s="12" t="n"/>
-      <c r="P3" s="12" t="n"/>
-      <c r="Q3" s="12" t="n"/>
-      <c r="R3" s="12" t="n"/>
+      <c r="M3" s="10" t="n">
+        <v>68.35202996254024</v>
+      </c>
+      <c r="N3" s="10" t="n">
+        <v>71.56505117707799</v>
+      </c>
+      <c r="O3" s="7" t="n"/>
+      <c r="P3" s="7" t="n"/>
+      <c r="Q3" s="7" t="n"/>
+      <c r="R3" s="7" t="n"/>
       <c r="S3" s="6" t="n">
-        <v>175</v>
+        <v>211.5</v>
       </c>
       <c r="T3" s="7" t="n">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="U3" s="7" t="n">
         <v>0</v>
       </c>
       <c r="V3" s="6" t="n">
-        <v>38</v>
-      </c>
-      <c r="W3" s="13" t="n">
-        <v>17.08800749063506</v>
+        <v>21.54065922853801</v>
+      </c>
+      <c r="W3" s="6" t="n">
+        <v>18.97366596101028</v>
       </c>
       <c r="X3" s="6" t="n">
         <v>56.30993247402022</v>
       </c>
-      <c r="Y3" s="13" t="n"/>
+      <c r="Y3" s="6" t="n"/>
       <c r="Z3" s="6" t="n">
         <v>52.52382043863863</v>
       </c>
-      <c r="AA3" s="13" t="n"/>
-      <c r="AB3" s="10">
+      <c r="AA3" s="6" t="n"/>
+      <c r="AB3" s="9">
         <f>(G3-M3)*100/G3</f>
         <v/>
       </c>
-      <c r="AC3" s="10">
+      <c r="AC3" s="9">
         <f>(N3-H3)*100/H3</f>
         <v/>
       </c>
@@ -879,66 +868,56 @@
       <c r="D4" s="1" t="n"/>
       <c r="E4" s="1" t="n"/>
       <c r="F4" s="2" t="n"/>
-      <c r="G4" s="4" t="n">
-        <v>93.4933152690608</v>
-      </c>
-      <c r="H4" s="5" t="n">
-        <v>89.5185341941616</v>
-      </c>
-      <c r="I4" s="6" t="n">
-        <v>170.3</v>
-      </c>
-      <c r="J4" s="6" t="n">
-        <v>245.7</v>
-      </c>
+      <c r="G4" s="4" t="n"/>
+      <c r="H4" s="5" t="n"/>
+      <c r="I4" s="6" t="n"/>
+      <c r="J4" s="6" t="n"/>
       <c r="K4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="M4" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="N4" s="9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="O4" s="12" t="n"/>
-      <c r="P4" s="12" t="n"/>
-      <c r="Q4" s="12" t="n"/>
-      <c r="R4" s="12" t="n"/>
+        <v>1</v>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="M4" s="8" t="n">
+        <v>89</v>
+      </c>
+      <c r="N4" s="8" t="n">
+        <v>67.07246969716267</v>
+      </c>
+      <c r="O4" s="7" t="n"/>
+      <c r="P4" s="7" t="n"/>
+      <c r="Q4" s="7" t="n"/>
+      <c r="R4" s="7" t="n"/>
       <c r="S4" s="6" t="n">
-        <v>233.5</v>
+        <v>249</v>
       </c>
       <c r="T4" s="7" t="n">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="U4" s="7" t="n">
         <v>0</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>26</v>
-      </c>
-      <c r="W4" s="13" t="n"/>
+        <v>26.83281572999748</v>
+      </c>
+      <c r="W4" s="6" t="n">
+        <v>25.05992817228334</v>
+      </c>
       <c r="X4" s="6" t="n">
         <v>90</v>
       </c>
-      <c r="Y4" s="13" t="n"/>
+      <c r="Y4" s="6" t="n"/>
       <c r="Z4" s="6" t="n">
         <v>57.6698142649497</v>
       </c>
-      <c r="AA4" s="13" t="n"/>
-      <c r="AB4" s="10">
+      <c r="AA4" s="6" t="n"/>
+      <c r="AB4" s="9">
         <f>(G4-M4)*100/G4</f>
         <v/>
       </c>
-      <c r="AC4" s="10">
+      <c r="AC4" s="9">
         <f>(N4-H4)*100/H4</f>
         <v/>
       </c>
@@ -949,12 +928,12 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Adarsh</t>
-        </is>
-      </c>
-      <c r="C5" s="14" t="inlineStr">
-        <is>
-          <t>o.EE0Tzv0zamMoLiNJwZ0VWeOBixmokh2M</t>
+          <t>Hridhay</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>o.5DSBAfH6nGGgDe5qWeW3xxzV59nRwraX</t>
         </is>
       </c>
       <c r="D5" s="1" t="n"/>
@@ -975,25 +954,25 @@
       <c r="K5" s="7" t="n">
         <v>0</v>
       </c>
-      <c r="L5" s="8" t="inlineStr">
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="M5" s="9" t="inlineStr">
+      <c r="M5" s="8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="N5" s="9" t="inlineStr">
+      <c r="N5" s="8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O5" s="12" t="n"/>
-      <c r="P5" s="12" t="n"/>
-      <c r="Q5" s="12" t="n"/>
-      <c r="R5" s="12" t="n"/>
+      <c r="O5" s="7" t="n"/>
+      <c r="P5" s="7" t="n"/>
+      <c r="Q5" s="7" t="n"/>
+      <c r="R5" s="7" t="n"/>
       <c r="S5" s="6" t="n">
         <v>278</v>
       </c>
@@ -1006,116 +985,116 @@
       <c r="V5" s="6" t="n">
         <v>18.4390889145858</v>
       </c>
-      <c r="W5" s="13" t="n"/>
+      <c r="W5" s="6" t="n"/>
       <c r="X5" s="6" t="n">
         <v>77.47119229084851</v>
       </c>
-      <c r="Y5" s="13" t="n"/>
+      <c r="Y5" s="6" t="n"/>
       <c r="Z5" s="6" t="n">
         <v>87.4949071327586</v>
       </c>
-      <c r="AA5" s="13" t="n"/>
-      <c r="AB5" s="10">
+      <c r="AA5" s="6" t="n"/>
+      <c r="AB5" s="9">
         <f>(G5-M5)*100/G5</f>
         <v/>
       </c>
-      <c r="AC5" s="10">
+      <c r="AC5" s="9">
         <f>(N5-H5)*100/H5</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
-      <c r="A6" s="12" t="n"/>
-      <c r="B6" s="19" t="n"/>
-      <c r="C6" s="16" t="n"/>
-      <c r="D6" s="12" t="n"/>
-      <c r="E6" s="12" t="n"/>
-      <c r="F6" s="19" t="n"/>
-      <c r="G6" s="17" t="n"/>
-      <c r="H6" s="13" t="n"/>
-      <c r="I6" s="13" t="n"/>
-      <c r="J6" s="13" t="n"/>
-      <c r="K6" s="12" t="n"/>
-      <c r="L6" s="19" t="n"/>
-      <c r="M6" s="17" t="n"/>
-      <c r="N6" s="17" t="n"/>
-      <c r="O6" s="12" t="n"/>
-      <c r="P6" s="12" t="n"/>
-      <c r="Q6" s="12" t="n"/>
-      <c r="R6" s="12" t="n"/>
-      <c r="S6" s="13" t="n"/>
-      <c r="T6" s="12" t="n"/>
-      <c r="U6" s="12" t="n"/>
-      <c r="V6" s="13" t="n"/>
-      <c r="W6" s="13" t="n"/>
-      <c r="X6" s="13" t="n"/>
-      <c r="Y6" s="13" t="n"/>
-      <c r="Z6" s="13" t="n"/>
-      <c r="AA6" s="13" t="n"/>
-      <c r="AB6" s="19" t="n"/>
-      <c r="AC6" s="19" t="n"/>
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="7" t="n"/>
+      <c r="B6" s="15" t="n"/>
+      <c r="C6" s="2" t="n"/>
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="7" t="n"/>
+      <c r="F6" s="15" t="n"/>
+      <c r="G6" s="8" t="n"/>
+      <c r="H6" s="6" t="n"/>
+      <c r="I6" s="6" t="n"/>
+      <c r="J6" s="6" t="n"/>
+      <c r="K6" s="7" t="n"/>
+      <c r="L6" s="15" t="n"/>
+      <c r="M6" s="8" t="n"/>
+      <c r="N6" s="8" t="n"/>
+      <c r="O6" s="7" t="n"/>
+      <c r="P6" s="7" t="n"/>
+      <c r="Q6" s="7" t="n"/>
+      <c r="R6" s="7" t="n"/>
+      <c r="S6" s="6" t="n"/>
+      <c r="T6" s="7" t="n"/>
+      <c r="U6" s="7" t="n"/>
+      <c r="V6" s="6" t="n"/>
+      <c r="W6" s="6" t="n"/>
+      <c r="X6" s="6" t="n"/>
+      <c r="Y6" s="6" t="n"/>
+      <c r="Z6" s="6" t="n"/>
+      <c r="AA6" s="6" t="n"/>
+      <c r="AB6" s="15" t="n"/>
+      <c r="AC6" s="15" t="n"/>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
-      <c r="A7" s="12" t="n"/>
-      <c r="B7" s="19" t="n"/>
-      <c r="C7" s="16" t="n"/>
-      <c r="D7" s="12" t="n"/>
-      <c r="E7" s="12" t="n"/>
-      <c r="F7" s="19" t="n"/>
-      <c r="G7" s="17" t="n"/>
-      <c r="H7" s="13" t="n"/>
-      <c r="I7" s="13" t="n"/>
-      <c r="J7" s="13" t="n"/>
-      <c r="K7" s="12" t="n"/>
-      <c r="L7" s="19" t="n"/>
-      <c r="M7" s="17" t="n"/>
-      <c r="N7" s="17" t="n"/>
-      <c r="O7" s="12" t="n"/>
-      <c r="P7" s="12" t="n"/>
-      <c r="Q7" s="12" t="n"/>
-      <c r="R7" s="12" t="n"/>
-      <c r="S7" s="13" t="n"/>
-      <c r="T7" s="12" t="n"/>
-      <c r="U7" s="12" t="n"/>
-      <c r="V7" s="13" t="n"/>
-      <c r="W7" s="13" t="n"/>
-      <c r="X7" s="13" t="n"/>
-      <c r="Y7" s="13" t="n"/>
-      <c r="Z7" s="13" t="n"/>
-      <c r="AA7" s="13" t="n"/>
-      <c r="AB7" s="19" t="n"/>
-      <c r="AC7" s="19" t="n"/>
+    <row r="7" ht="19.5" customHeight="1">
+      <c r="A7" s="7" t="n"/>
+      <c r="B7" s="15" t="n"/>
+      <c r="C7" s="13" t="inlineStr"/>
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="7" t="n"/>
+      <c r="F7" s="15" t="n"/>
+      <c r="G7" s="8" t="n"/>
+      <c r="H7" s="6" t="n"/>
+      <c r="I7" s="6" t="n"/>
+      <c r="J7" s="6" t="n"/>
+      <c r="K7" s="7" t="n"/>
+      <c r="L7" s="15" t="n"/>
+      <c r="M7" s="8" t="n"/>
+      <c r="N7" s="8" t="n"/>
+      <c r="O7" s="7" t="n"/>
+      <c r="P7" s="7" t="n"/>
+      <c r="Q7" s="7" t="n"/>
+      <c r="R7" s="7" t="n"/>
+      <c r="S7" s="6" t="n"/>
+      <c r="T7" s="7" t="n"/>
+      <c r="U7" s="7" t="n"/>
+      <c r="V7" s="6" t="n"/>
+      <c r="W7" s="6" t="n"/>
+      <c r="X7" s="6" t="n"/>
+      <c r="Y7" s="6" t="n"/>
+      <c r="Z7" s="6" t="n"/>
+      <c r="AA7" s="6" t="n"/>
+      <c r="AB7" s="15" t="n"/>
+      <c r="AC7" s="15" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="12" t="n"/>
-      <c r="B8" s="19" t="n"/>
+      <c r="A8" s="7" t="n"/>
+      <c r="B8" s="15" t="n"/>
       <c r="C8" s="2" t="n"/>
-      <c r="D8" s="12" t="n"/>
-      <c r="E8" s="12" t="n"/>
-      <c r="F8" s="19" t="n"/>
-      <c r="G8" s="17" t="n"/>
-      <c r="H8" s="13" t="n"/>
-      <c r="I8" s="13" t="n"/>
-      <c r="J8" s="13" t="n"/>
-      <c r="K8" s="12" t="n"/>
-      <c r="L8" s="19" t="n"/>
-      <c r="M8" s="17" t="n"/>
-      <c r="N8" s="17" t="n"/>
-      <c r="O8" s="12" t="n"/>
-      <c r="P8" s="12" t="n"/>
-      <c r="Q8" s="12" t="n"/>
-      <c r="R8" s="12" t="n"/>
-      <c r="S8" s="13" t="n"/>
-      <c r="T8" s="12" t="n"/>
-      <c r="U8" s="12" t="n"/>
-      <c r="V8" s="13" t="n"/>
-      <c r="W8" s="13" t="n"/>
-      <c r="X8" s="13" t="n"/>
-      <c r="Y8" s="13" t="n"/>
-      <c r="Z8" s="13" t="n"/>
-      <c r="AA8" s="13" t="n"/>
-      <c r="AB8" s="19" t="n"/>
-      <c r="AC8" s="19" t="n"/>
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="15" t="n"/>
+      <c r="G8" s="8" t="n"/>
+      <c r="H8" s="6" t="n"/>
+      <c r="I8" s="6" t="n"/>
+      <c r="J8" s="6" t="n"/>
+      <c r="K8" s="7" t="n"/>
+      <c r="L8" s="15" t="n"/>
+      <c r="M8" s="8" t="n"/>
+      <c r="N8" s="8" t="n"/>
+      <c r="O8" s="7" t="n"/>
+      <c r="P8" s="7" t="n"/>
+      <c r="Q8" s="7" t="n"/>
+      <c r="R8" s="7" t="n"/>
+      <c r="S8" s="6" t="n"/>
+      <c r="T8" s="7" t="n"/>
+      <c r="U8" s="7" t="n"/>
+      <c r="V8" s="6" t="n"/>
+      <c r="W8" s="6" t="n"/>
+      <c r="X8" s="6" t="n"/>
+      <c r="Y8" s="6" t="n"/>
+      <c r="Z8" s="6" t="n"/>
+      <c r="AA8" s="6" t="n"/>
+      <c r="AB8" s="15" t="n"/>
+      <c r="AC8" s="15" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
